--- a/受控文件/组内评分/SRA2021-G04-需求变更管理组内评审.xlsx
+++ b/受控文件/组内评分/SRA2021-G04-需求变更管理组内评审.xlsx
@@ -123,12 +123,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,46 +141,124 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,7 +273,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,38 +281,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,67 +294,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -318,175 +304,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,65 +495,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -595,6 +522,65 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -612,156 +598,156 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1084,7 +1070,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="7"/>
@@ -1415,23 +1401,23 @@
         <v>21</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1511,23 +1497,23 @@
         <v>25</v>
       </c>
       <c r="B18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G18">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1560,27 +1546,27 @@
       </c>
       <c r="B20" s="3">
         <f t="shared" ref="B20:G20" si="1">SUM(B2:B19)</f>
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D20" s="3">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E20" s="3">
         <f t="shared" si="1"/>
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F20" s="3">
         <f t="shared" si="1"/>
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G20">
         <f t="shared" si="0"/>
-        <v>63.6</v>
+        <v>60.6</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1589,7 +1575,7 @@
       </c>
       <c r="B21">
         <f>AVERAGE(G2:G19)</f>
-        <v>3.53333333333333</v>
+        <v>3.36666666666667</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1617,15 +1603,15 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D23">
-        <f>SUM(0,3,1,2,5,0,2,3,2,2,0,4,0,5,5,3,0,5)</f>
-        <v>42</v>
+        <f>SUM(0,3,1,2,5,0,2,3,2,2,0,4,4,5,5,3,1,5)</f>
+        <v>47</v>
       </c>
       <c r="E23">
-        <f>SUM(5,2,4,3,0,5,3,2,3,3,5,1,5,0,0,2,5,0)</f>
-        <v>48</v>
+        <f>SUM(5,2,4,3,0,5,3,2,3,3,5,1,0,0,0,2,0,0)</f>
+        <v>38</v>
       </c>
       <c r="F23">
         <v>0</v>
